--- a/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbotapor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM\RPaM-Ontology1.1\02-Vocabularies\RPaM\MS-RPaM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2565" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="257">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Cardinality</t>
   </si>
   <si>
-    <t>DatosAuditoriaType/CodApl</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -564,9 +561,6 @@
   </si>
   <si>
     <t>Numeric</t>
-  </si>
-  <si>
-    <t>RPaM Request Model</t>
   </si>
   <si>
     <t>Name (MANDATORY)</t>
@@ -760,6 +754,54 @@
   </si>
   <si>
     <t>Vous pouvez choisir entre secteur ONSS ou ORPSS, Publiato, Sigedis ou Services Internationaux</t>
+  </si>
+  <si>
+    <t>RPaM  Model</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>DatosAuditoriaType/CodAplicacion</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/CodApoderamientoINT</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/CodApoderamientoEXT</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/TipoApoderamiento</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/Estado</t>
+  </si>
+  <si>
+    <t>xs:unsignedLong</t>
+  </si>
+  <si>
+    <t>xs:string</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/PeriodoVigencia</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosPordedante</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosApoderado</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosPordedante/PersonaJuridica</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosPordedante/PersonaFisica</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosApoderado/PersonaFisica</t>
+  </si>
+  <si>
+    <t>DatosApoderamientoType/DatosApoderado/PersonaJuridica</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,7 +1098,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1400,7 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1413,7 +1454,7 @@
     </row>
     <row r="8" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1423,495 +1464,553 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M21"/>
+  <dimension ref="B3:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-    <col min="9" max="13" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
+    <col min="10" max="14" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="59" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="36" t="s">
+      <c r="K4" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="M4" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="N4" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="35"/>
+      <c r="H6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="35"/>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="35"/>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="37"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="37"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="35"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5">
+        <v>28</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="35"/>
+      <c r="H11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="38"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="37"/>
+      <c r="J13" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K13" s="37"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="38"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="2:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="2:14" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="35"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
       <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="35"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="D19" s="13" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="40"/>
+      <c r="J20" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="37"/>
       <c r="L20" s="37"/>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="37"/>
+      <c r="N20" s="35"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="37"/>
+      <c r="J21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="35"/>
       <c r="L21" s="37"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1920,20 +2019,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O20"/>
+  <dimension ref="B3:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="73.85546875" customWidth="1"/>
@@ -1944,22 +2043,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="4"/>
       <c r="O3" s="7"/>
     </row>
@@ -1968,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -2001,16 +2100,16 @@
         <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -2019,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>5</v>
@@ -2028,14 +2127,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M5" s="10">
         <v>1</v>
@@ -2046,107 +2145,107 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="N6" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="14">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="15"/>
@@ -2154,35 +2253,35 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="15"/>
@@ -2190,26 +2289,26 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -2220,92 +2319,92 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5">
         <v>1</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
@@ -2314,107 +2413,107 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="F14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="F16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="16"/>
@@ -2422,153 +2521,220 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="21" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2585,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,22 +2773,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -2631,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -2664,22 +2830,22 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="9"/>
@@ -2687,19 +2853,19 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="34"/>
@@ -2707,18 +2873,18 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="13"/>
       <c r="H5" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -2731,18 +2897,18 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="13"/>
       <c r="H6" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
@@ -2755,13 +2921,13 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -2779,16 +2945,16 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="26">
@@ -2805,10 +2971,10 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2825,10 +2991,10 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2845,10 +3011,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2865,10 +3031,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2886,32 +3052,32 @@
       <c r="B13" s="12"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="26">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="15"/>
@@ -2920,69 +3086,69 @@
       <c r="B14" s="12"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14" s="5">
         <v>1</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M15" s="5">
         <v>1</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O15" s="16"/>
     </row>
@@ -2990,10 +3156,10 @@
       <c r="B16" s="12"/>
       <c r="C16" s="21"/>
       <c r="D16" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -3001,19 +3167,19 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="16"/>
@@ -3022,10 +3188,10 @@
       <c r="B17" s="12"/>
       <c r="C17" s="21"/>
       <c r="D17" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -3033,19 +3199,19 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="16"/>
@@ -3054,10 +3220,10 @@
       <c r="B18" s="12"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -3065,15 +3231,15 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="16"/>
@@ -3082,10 +3248,10 @@
       <c r="B19" s="12"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -3093,15 +3259,15 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="16"/>
@@ -3110,15 +3276,15 @@
       <c r="B20" s="12"/>
       <c r="C20" s="21"/>
       <c r="D20" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
@@ -3132,13 +3298,13 @@
       <c r="B21" s="12"/>
       <c r="C21" s="21"/>
       <c r="D21" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="26">
@@ -3156,29 +3322,29 @@
       <c r="B22" s="12"/>
       <c r="C22" s="21"/>
       <c r="D22" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="26">
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M22" s="14">
         <v>1</v>
@@ -3190,29 +3356,29 @@
       <c r="B23" s="12"/>
       <c r="C23" s="21"/>
       <c r="D23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="F23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="H23" s="26">
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23" s="14">
         <v>1</v>
@@ -3224,15 +3390,15 @@
       <c r="B24" s="12"/>
       <c r="C24" s="21"/>
       <c r="D24" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
@@ -3246,15 +3412,15 @@
       <c r="B25" s="12"/>
       <c r="C25" s="21"/>
       <c r="D25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
@@ -3268,15 +3434,15 @@
       <c r="B26" s="12"/>
       <c r="C26" s="21"/>
       <c r="D26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
@@ -3290,30 +3456,30 @@
       <c r="B27" s="12"/>
       <c r="C27" s="21"/>
       <c r="D27" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="15"/>
@@ -3322,28 +3488,28 @@
       <c r="B28" s="12"/>
       <c r="C28" s="21"/>
       <c r="D28" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="15"/>
@@ -3352,15 +3518,15 @@
       <c r="B29" s="12"/>
       <c r="C29" s="21"/>
       <c r="D29" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
@@ -3374,30 +3540,30 @@
       <c r="B30" s="12"/>
       <c r="C30" s="21"/>
       <c r="D30" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="15"/>
@@ -3406,10 +3572,10 @@
       <c r="B31" s="12"/>
       <c r="C31" s="21"/>
       <c r="D31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -3426,15 +3592,15 @@
       <c r="B32" s="12"/>
       <c r="C32" s="21"/>
       <c r="D32" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
@@ -3448,13 +3614,13 @@
       <c r="B33" s="12"/>
       <c r="C33" s="21"/>
       <c r="D33" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
@@ -3468,13 +3634,13 @@
       <c r="B34" s="12"/>
       <c r="C34" s="21"/>
       <c r="D34" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
@@ -3488,13 +3654,13 @@
       <c r="B35" s="12"/>
       <c r="C35" s="21"/>
       <c r="D35" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="13"/>
@@ -3508,43 +3674,43 @@
       <c r="B36" s="12"/>
       <c r="C36" s="21"/>
       <c r="D36" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="41" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>173</v>
       </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L36" s="21"/>
       <c r="M36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="21"/>
-      <c r="O36" s="42"/>
+      <c r="O36" s="41"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="21"/>
       <c r="D37" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
@@ -3558,10 +3724,10 @@
       <c r="B38" s="17"/>
       <c r="C38" s="30"/>
       <c r="D38" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -3609,22 +3775,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -3633,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -3666,38 +3832,38 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="27"/>
       <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
@@ -3705,22 +3871,22 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="26"/>
       <c r="I5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -3731,180 +3897,180 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="26"/>
       <c r="I6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="26"/>
       <c r="I7" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="26"/>
       <c r="I8" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="26"/>
       <c r="I9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O9" s="16"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="26"/>
       <c r="I10" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3921,10 +4087,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3941,19 +4107,19 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="15"/>
       <c r="I13" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3965,27 +4131,27 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="32"/>
       <c r="I14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4025,22 +4191,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4049,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -4063,7 +4229,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="45" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -4082,19 +4248,19 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -4111,10 +4277,10 @@
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -4131,10 +4297,10 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4151,10 +4317,10 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4168,49 +4334,49 @@
       <c r="N7" s="13"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="2:15" s="56" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
+    <row r="8" spans="2:15" s="55" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>91</v>
+      <c r="K8" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4227,10 +4393,10 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4247,10 +4413,10 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4267,10 +4433,10 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4287,10 +4453,10 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4307,10 +4473,10 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4327,10 +4493,10 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4347,10 +4513,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4367,26 +4533,26 @@
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="15"/>
       <c r="I17" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M17" s="14">
         <v>1</v>
@@ -4397,10 +4563,10 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4417,13 +4583,13 @@
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -4439,19 +4605,19 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="15"/>
       <c r="I20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -4463,53 +4629,53 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="15"/>
       <c r="I21" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="15"/>
       <c r="I22" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -4522,16 +4688,16 @@
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
       <c r="I23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -4543,29 +4709,29 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="15"/>
       <c r="I24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="15"/>
@@ -4573,19 +4739,19 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="15"/>
       <c r="I25" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
@@ -4597,19 +4763,19 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="41" t="s">
-        <v>44</v>
+      <c r="I26" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -4621,19 +4787,19 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="41" t="s">
-        <v>44</v>
+      <c r="I27" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -4646,16 +4812,16 @@
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="D28" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="47" t="s">
-        <v>44</v>
+      <c r="I28" s="46" t="s">
+        <v>43</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -4691,29 +4857,30 @@
     <col min="5" max="5" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="55.140625" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="4"/>
       <c r="O2" s="7"/>
     </row>
@@ -4722,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -4755,34 +4922,34 @@
         <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="47" t="s">
         <v>37</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="48" t="s">
-        <v>38</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="11"/>
@@ -4791,116 +4958,116 @@
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M5" s="5">
         <v>1</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="16"/>
@@ -4909,52 +5076,52 @@
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="15"/>
       <c r="I9" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="15"/>
       <c r="I10" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="16"/>
@@ -4963,30 +5130,30 @@
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="32"/>
       <c r="I11" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="262">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -765,43 +765,58 @@
     <t>DatosAuditoriaType/CodAplicacion</t>
   </si>
   <si>
-    <t>DatosApoderamientoType/CodApoderamientoINT</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/CodApoderamientoEXT</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/TipoApoderamiento</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/Estado</t>
-  </si>
-  <si>
     <t>xs:unsignedLong</t>
   </si>
   <si>
     <t>xs:string</t>
   </si>
   <si>
-    <t>DatosApoderamientoType/PeriodoVigencia</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosPordedante</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosApoderado</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosPordedante/PersonaJuridica</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosPordedante/PersonaFisica</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosApoderado/PersonaFisica</t>
-  </si>
-  <si>
-    <t>DatosApoderamientoType/DatosApoderado/PersonaJuridica</t>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/CodApoderamientoINT</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/CodApoderamientoEXT</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/TipoApoderamiento</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/Estado</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/PeriodoVigencia</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado/PersonaFisica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado/PersonaJuridica</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/DatosAuditoria</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ResultadoError/CodigoError</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ResultadoError/DescripcionError</t>
+  </si>
+  <si>
+    <t>xs:string [4]</t>
+  </si>
+  <si>
+    <t>xs:string [200]</t>
   </si>
 </sst>
 </file>
@@ -1134,13 +1149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,23 +1500,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
@@ -2019,18 +2034,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O31"/>
+  <dimension ref="B3:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="101.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2675,31 +2690,37 @@
         <v>242</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>244</v>
-      </c>
-      <c r="F21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D22" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D23" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D24" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -2714,7 +2735,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D27" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -2724,7 +2745,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D29" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -2735,6 +2756,27 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D31" s="21" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
+++ b/02-Vocabularies/RPaM/MS-RPaM/RPaM-mapping to MS-dataModels-v1.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="313">
   <si>
     <t>This spread-sheet details the content of different MS eMandates and maps it to the RPaM Conceptual Data Model</t>
   </si>
@@ -768,9 +768,6 @@
     <t>xs:unsignedLong</t>
   </si>
   <si>
-    <t>xs:string</t>
-  </si>
-  <si>
     <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/CodApoderamientoINT</t>
   </si>
   <si>
@@ -817,6 +814,162 @@
   </si>
   <si>
     <t>xs:string [200]</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/IdentificacionPF</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Nombre</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido1</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Apellido2</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaFisica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/IdentificacionPJ</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/RazonSocial</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Email</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Telefono</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/PersonaJuridica/Domicilio</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosPordedante/Representante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/DatosApoderamientoType/DatosApoderado/Representante</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/NombreDocumento</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/TipoDocumento</t>
+  </si>
+  <si>
+    <t>ConsultarApoderamientosResponse/ListaApoderamientos/ListaAnexos/CSV</t>
+  </si>
+  <si>
+    <t>Secure document verification code</t>
+  </si>
+  <si>
+    <t>Type of anex's document</t>
+  </si>
+  <si>
+    <t>Name of the anex's document</t>
+  </si>
+  <si>
+    <t>xs:string [2]</t>
+  </si>
+  <si>
+    <t>Period of validity of the mandate.</t>
+  </si>
+  <si>
+    <t>Current status of the mandate.</t>
+  </si>
+  <si>
+    <t>Mandate Type.</t>
+  </si>
+  <si>
+    <t>Identificador único de apoderamiento en REA externo.</t>
+  </si>
+  <si>
+    <t>Identificador único de apoderamiento en el REA del MINHAP.</t>
+  </si>
+  <si>
+    <t>Information about the mandator.</t>
+  </si>
+  <si>
+    <t>Information about the mandatee.</t>
+  </si>
+  <si>
+    <t>Information list of the annexes associated with the mandate.</t>
+  </si>
+  <si>
+    <t>Information about the natural person.</t>
+  </si>
+  <si>
+    <t>Information about the legal person.</t>
+  </si>
+  <si>
+    <t>First surname of the NP</t>
+  </si>
+  <si>
+    <t>Firsrt name of the NP</t>
+  </si>
+  <si>
+    <t>Second surname of the NP</t>
+  </si>
+  <si>
+    <t>email address of the NP</t>
+  </si>
+  <si>
+    <t>Phone number of the NP</t>
+  </si>
+  <si>
+    <t>Postal address of the NP</t>
+  </si>
+  <si>
+    <t>NIF or NIE of the NP</t>
+  </si>
+  <si>
+    <t>Official name of the LP</t>
+  </si>
+  <si>
+    <t>email address of the LP</t>
+  </si>
+  <si>
+    <t>Phone number of the LP</t>
+  </si>
+  <si>
+    <t>Postal address of the LP</t>
+  </si>
+  <si>
+    <t>Error type code</t>
+  </si>
+  <si>
+    <t>Information of the error of the LP</t>
+  </si>
+  <si>
+    <t>Xs:string [40]</t>
+  </si>
+  <si>
+    <t>xs:string [100]</t>
+  </si>
+  <si>
+    <t>xs:string [20]</t>
+  </si>
+  <si>
+    <t>xs:string [50]</t>
+  </si>
+  <si>
+    <t>CIF entity number with or without legal personality.</t>
+  </si>
+  <si>
+    <t>xs:string [10]</t>
+  </si>
+  <si>
+    <t>xs:string [9]</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1041,12 +1194,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,6 +1357,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2034,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O34"/>
+  <dimension ref="B3:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2237,7 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="101.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -2054,7 +2245,7 @@
     <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -2649,135 +2840,771 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="20" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="68"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+      <c r="C22" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E22" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="21" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="15"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+      <c r="C33" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+      <c r="C34" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="21" t="s">
+      <c r="E35" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+      <c r="C36" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+      <c r="C37" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+      <c r="C38" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+      <c r="C39" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+      <c r="C41" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+      <c r="C42" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="21" t="s">
+      <c r="E42" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+      <c r="C43" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D30" s="21" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+      <c r="C44" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="21" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+      <c r="C45" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+      <c r="C46" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+      <c r="C47" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+      <c r="C48" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="15"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+      <c r="C49" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="15"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="15"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+      <c r="C51" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="E51" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="15"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="17"/>
+      <c r="C52" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E52" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" t="s">
-        <v>261</v>
-      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
